--- a/app/help/@help.xlsx
+++ b/app/help/@help.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="1821">
   <si>
     <t>### SMBサーバーを検索して設定する</t>
   </si>
@@ -1652,9 +1652,6 @@
     <t>Wenn diese Option aktiviert ist, wird im Zielverzeichnis kein Unterverzeichnis im Quellverzeichnis angelegt.</t>
   </si>
   <si>
-    <t>### Wählen Sie aus, was archiviert werden soll</t>
-  </si>
-  <si>
     <t>### Laufende  Nummer</t>
   </si>
   <si>
@@ -4929,18 +4926,6 @@
   </si>
   <si>
     <t>- 不要附加</t>
-  </si>
-  <si>
-    <t>### Select the target to archive</t>
-  </si>
-  <si>
-    <t>### Sélectionnez une cible à archiver</t>
-  </si>
-  <si>
-    <t>### Выберите цель для архивации</t>
-  </si>
-  <si>
-    <t>### 选择一个要存档的目标</t>
   </si>
   <si>
     <t>指定SMB服务器的账户名</t>
@@ -6066,13 +6051,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C173" sqref="C173"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6084,7 +6069,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -6142,19 +6127,19 @@
         <v>393</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6168,25 +6153,25 @@
     </row>
     <row r="5" spans="1:7" ht="135">
       <c r="A5" s="9" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>394</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6206,19 +6191,19 @@
         <v>395</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6238,19 +6223,19 @@
         <v>396</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6270,19 +6255,19 @@
         <v>397</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6302,19 +6287,19 @@
         <v>398</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6334,42 +6319,42 @@
         <v>399</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="105">
       <c r="A16" s="9" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>1731</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>1732</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>1734</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>1735</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6377,22 +6362,22 @@
         <v>161</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="105">
@@ -6400,22 +6385,22 @@
         <v>162</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>1486</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>1489</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>1487</v>
-      </c>
       <c r="G18" s="9" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6432,22 +6417,22 @@
         <v>163</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>1589</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>1795</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>1590</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>1591</v>
-      </c>
       <c r="G20" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6461,25 +6446,25 @@
     </row>
     <row r="22" spans="1:7" ht="150">
       <c r="A22" s="9" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6496,22 +6481,22 @@
         <v>164</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>1592</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>1593</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>1594</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>1595</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60">
@@ -6519,22 +6504,22 @@
         <v>165</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>1491</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>1494</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>1493</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>1492</v>
-      </c>
       <c r="G25" s="9" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6551,22 +6536,22 @@
         <v>166</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>1596</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>1584</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>1597</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>1598</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="120">
@@ -6574,22 +6559,22 @@
         <v>167</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>1496</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>1497</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>1498</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>1499</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>1500</v>
-      </c>
       <c r="G28" s="9" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6606,22 +6591,22 @@
         <v>168</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>1501</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>1504</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>1503</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>1502</v>
-      </c>
       <c r="G30" s="9" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6638,22 +6623,22 @@
         <v>169</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6661,22 +6646,22 @@
         <v>170</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="90">
@@ -6684,22 +6669,22 @@
         <v>171</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6719,19 +6704,19 @@
         <v>400</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30">
@@ -6742,19 +6727,19 @@
         <v>401</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6774,19 +6759,19 @@
         <v>402</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6806,19 +6791,19 @@
         <v>403</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6838,19 +6823,19 @@
         <v>404</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6870,19 +6855,19 @@
         <v>405</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6902,19 +6887,19 @@
         <v>406</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="60">
@@ -6925,22 +6910,22 @@
         <v>407</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="9" t="s">
         <v>180</v>
       </c>
@@ -6948,22 +6933,22 @@
         <v>408</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="45">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45">
       <c r="A50" s="9" t="s">
         <v>181</v>
       </c>
@@ -6971,45 +6956,45 @@
         <v>409</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="45">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45">
       <c r="A51" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="9" t="s">
         <v>182</v>
       </c>
@@ -7017,22 +7002,22 @@
         <v>410</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="45">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="45">
       <c r="A53" s="22" t="s">
         <v>181</v>
       </c>
@@ -7040,45 +7025,45 @@
         <v>411</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="45">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45">
       <c r="A54" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="9" t="s">
         <v>183</v>
       </c>
@@ -7086,22 +7071,22 @@
         <v>412</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="60">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="60">
       <c r="A56" s="9" t="s">
         <v>181</v>
       </c>
@@ -7109,45 +7094,45 @@
         <v>411</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30">
       <c r="A57" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="9" t="s">
         <v>185</v>
       </c>
@@ -7155,22 +7140,22 @@
         <v>413</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="60">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="60">
       <c r="A59" s="9" t="s">
         <v>186</v>
       </c>
@@ -7178,22 +7163,22 @@
         <v>414</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -7202,201 +7187,232 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" ht="45">
+    <row r="61" spans="1:8" s="4" customFormat="1" ht="30">
       <c r="A61" s="9" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>415</v>
+        <v>285</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>992</v>
+        <v>920</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1190</v>
+        <v>1160</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>1295</v>
+      </c>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" s="4" customFormat="1">
       <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" ht="75">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" s="4" customFormat="1" ht="45">
       <c r="A63" s="9" t="s">
-        <v>188</v>
+        <v>1443</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>416</v>
+        <v>1444</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>611</v>
+        <v>1446</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>800</v>
+        <v>1447</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>993</v>
+        <v>1448</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1191</v>
+        <v>1449</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>1445</v>
+      </c>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" s="4" customFormat="1">
       <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" s="4" customFormat="1">
       <c r="A65" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>801</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>994</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="45">
+        <v>32</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="4" customFormat="1">
       <c r="A66" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>802</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30">
+        <v>33</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="4" customFormat="1">
       <c r="A67" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>996</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" ht="90">
+        <v>34</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="4" customFormat="1">
+      <c r="A68" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="4" customFormat="1">
       <c r="A69" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>997</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" ht="60">
+        <v>36</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="4" customFormat="1">
+      <c r="A70" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="4" customFormat="1">
       <c r="A71" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>1381</v>
+        <v>38</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -7408,59 +7424,73 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" ht="60">
+    <row r="73" spans="1:7">
       <c r="A73" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" ht="45">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="45">
+      <c r="A74" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30">
       <c r="A75" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1521</v>
+        <v>613</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -7472,454 +7502,398 @@
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" ht="60">
+    <row r="77" spans="1:7" ht="45">
       <c r="A77" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
+      <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" ht="75">
       <c r="A79" s="9" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" ht="30">
+    <row r="81" spans="1:7" ht="90">
       <c r="A81" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" ht="60">
+      <c r="A83" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="9"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" ht="60">
+      <c r="A85" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="9"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" ht="45">
+      <c r="A87" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="9"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" ht="60">
+      <c r="A89" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="9"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="30">
+      <c r="A93" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B93" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C93" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D94" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E94" s="9" t="s">
         <v>1003</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F94" s="9" t="s">
         <v>1201</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G94" s="9" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="C82" s="9" t="s">
+    <row r="95" spans="1:7" ht="45">
+      <c r="A95" s="6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="60">
+      <c r="A96" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D96" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E96" s="9" t="s">
         <v>1004</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F96" s="9" t="s">
         <v>1202</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G96" s="9" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="45">
-      <c r="A83" s="6" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B83" s="6" t="s">
+    <row r="97" spans="1:7" ht="60">
+      <c r="A97" s="6" t="s">
         <v>1608</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>1606</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>1605</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>1612</v>
-      </c>
-      <c r="G83" s="6" t="s">
+      <c r="B97" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G97" s="6" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="60">
-      <c r="A84" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G84" s="9" t="s">
+    <row r="98" spans="1:7" ht="75">
+      <c r="A98" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G98" s="9" t="s">
         <v>1388</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="60">
-      <c r="A85" s="6" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="75">
-      <c r="A86" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="1:7" ht="30">
-      <c r="A90" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="45">
-      <c r="A91" s="9" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>1730</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="45">
-      <c r="A93" s="9" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="6" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>1718</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="45">
-      <c r="A95" s="9" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>1715</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>1719</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="6" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>1716</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>1720</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="45">
-      <c r="A97" s="9" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>1721</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="45">
-      <c r="A98" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>1208</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -7931,380 +7905,408 @@
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="1:7" ht="45">
+    <row r="100" spans="1:7">
       <c r="A100" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="1:7" ht="45">
-      <c r="A102" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>819</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="30">
+    <row r="102" spans="1:7" ht="30">
+      <c r="A102" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="45">
       <c r="A103" s="9" t="s">
-        <v>207</v>
+        <v>1685</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>629</v>
+        <v>1686</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>820</v>
+        <v>1687</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>1013</v>
+        <v>1688</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>1211</v>
+        <v>1689</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>1395</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="1:7" ht="30">
+      <c r="A104" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="45">
       <c r="A105" s="9" t="s">
-        <v>208</v>
+        <v>1684</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>630</v>
+        <v>1691</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>821</v>
+        <v>1692</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>1014</v>
+        <v>1693</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>1212</v>
+        <v>1694</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>1396</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="75">
+      <c r="A106" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="45">
       <c r="A107" s="9" t="s">
-        <v>210</v>
+        <v>1683</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>1738</v>
+        <v>1698</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>1740</v>
+        <v>1702</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>1741</v>
+        <v>1706</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>1742</v>
+        <v>1710</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1743</v>
+        <v>1714</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>1739</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="9"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="A108" s="6" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="45">
       <c r="A109" s="9" t="s">
-        <v>211</v>
+        <v>1696</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>441</v>
+        <v>1700</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>632</v>
+        <v>1704</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>823</v>
+        <v>1708</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>1016</v>
+        <v>1712</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1214</v>
+        <v>1716</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="90">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="45">
       <c r="A110" s="9" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>1744</v>
+        <v>435</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>1746</v>
+        <v>625</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>1747</v>
+        <v>816</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>1748</v>
+        <v>1009</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1745</v>
+        <v>1207</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="9"/>
-      <c r="B111" s="10"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="10"/>
+      <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="1:7" ht="30">
+    <row r="112" spans="1:7" ht="45">
       <c r="A112" s="9" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="150">
-      <c r="A113" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>1773</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="9"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="1:7">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="1:7" ht="45">
+      <c r="A114" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30">
       <c r="A115" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="150">
-      <c r="A116" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>1781</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="9"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7" ht="30">
+      <c r="A117" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>1395</v>
+      </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="9" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="75">
       <c r="A119" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>1777</v>
+        <v>1733</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>636</v>
+        <v>1735</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>1783</v>
+        <v>1736</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>1784</v>
+        <v>1737</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1785</v>
+        <v>1738</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>1786</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -8316,105 +8318,105 @@
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="1:7" ht="45">
+    <row r="121" spans="1:7">
       <c r="A121" s="9" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="60">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="90">
       <c r="A122" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>446</v>
+        <v>1739</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>638</v>
+        <v>1741</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>828</v>
+        <v>1742</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>1022</v>
+        <v>1743</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1219</v>
+        <v>1740</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
+      <c r="B123" s="10"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="10"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
     </row>
-    <row r="124" spans="1:7" ht="45">
+    <row r="124" spans="1:7" ht="30">
       <c r="A124" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="120">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="150">
       <c r="A125" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>448</v>
+        <v>1766</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>640</v>
+        <v>1767</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>830</v>
+        <v>1768</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>1048</v>
+        <v>1017</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1221</v>
+        <v>1769</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>1406</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -8426,146 +8428,160 @@
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:7" ht="45">
+    <row r="127" spans="1:7">
       <c r="A127" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-    </row>
-    <row r="129" spans="1:7" ht="105">
-      <c r="A129" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>1749</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>1750</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>1751</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>1752</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="120">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="150">
+      <c r="A128" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="9"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>1753</v>
+        <v>444</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>1754</v>
+        <v>634</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>1755</v>
+        <v>825</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>1756</v>
+        <v>1019</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>1757</v>
+        <v>1216</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="9"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-    </row>
-    <row r="132" spans="1:7" ht="45">
-      <c r="A132" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="75">
+      <c r="A131" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="9"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+    </row>
+    <row r="133" spans="1:7" ht="45">
+      <c r="A133" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="134" spans="1:7" ht="60">
       <c r="A134" s="9" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8573,393 +8589,379 @@
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
+      <c r="E135" s="10"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="1:7" ht="60">
+    <row r="136" spans="1:7" ht="45">
       <c r="A136" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-    </row>
-    <row r="138" spans="1:7" ht="210">
-      <c r="A138" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>1791</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>1792</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>1793</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="10"/>
-    </row>
-    <row r="140" spans="1:7" ht="45">
-      <c r="A140" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-    </row>
-    <row r="142" spans="1:7" ht="60">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="120">
+      <c r="A137" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="9"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="1:7" ht="45">
+      <c r="A139" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+    </row>
+    <row r="141" spans="1:7" ht="105">
+      <c r="A141" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="120">
       <c r="A142" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>454</v>
+        <v>1748</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>646</v>
+        <v>1749</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>836</v>
+        <v>1750</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>1029</v>
+        <v>1751</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>1227</v>
+        <v>1752</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="60">
-      <c r="A143" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>837</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="75">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="9"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+    </row>
+    <row r="144" spans="1:7" ht="45">
       <c r="A144" s="9" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="9"/>
-      <c r="B145" s="10"/>
+      <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" ht="45">
+    <row r="146" spans="1:7" ht="60">
       <c r="A146" s="9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="60">
-      <c r="A147" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="E147" s="9" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="9"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-    </row>
-    <row r="149" spans="1:7" ht="45">
-      <c r="A149" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="195">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+    </row>
+    <row r="148" spans="1:7" ht="60">
+      <c r="A148" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+    </row>
+    <row r="150" spans="1:7" ht="210">
       <c r="A150" s="9" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>460</v>
+        <v>1784</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>652</v>
+        <v>1785</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>842</v>
+        <v>1786</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>1035</v>
+        <v>1787</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1233</v>
+        <v>1788</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>1418</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="9"/>
-      <c r="B151" s="10"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
-      <c r="E151" s="10"/>
+      <c r="E151" s="9"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-    </row>
-    <row r="152" spans="1:7" ht="60">
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="1:7" ht="45">
       <c r="A152" s="9" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="315">
-      <c r="A153" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>1762</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>1763</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="9"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-    </row>
-    <row r="155" spans="1:7" ht="45">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+    </row>
+    <row r="154" spans="1:7" ht="60">
+      <c r="A154" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="60">
       <c r="A155" s="9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="135">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="75">
       <c r="A156" s="9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -8967,54 +8969,54 @@
       <c r="B157" s="10"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
-      <c r="E157" s="10"/>
+      <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="1:7" ht="90">
+    <row r="158" spans="1:7" ht="45">
       <c r="A158" s="9" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="90">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="60">
       <c r="A159" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -9026,50 +9028,50 @@
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="1:7" ht="60">
+    <row r="161" spans="1:7" ht="45">
       <c r="A161" s="9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>1766</v>
+        <v>650</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>1767</v>
+        <v>840</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>1768</v>
+        <v>1033</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>1769</v>
+        <v>1231</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="60">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="195">
       <c r="A162" s="9" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -9077,54 +9079,54 @@
       <c r="B163" s="10"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
+      <c r="E163" s="10"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
     </row>
     <row r="164" spans="1:7" ht="60">
       <c r="A164" s="9" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="60">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="315">
       <c r="A165" s="9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>469</v>
+        <v>1755</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>660</v>
+        <v>1756</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>850</v>
+        <v>1757</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>1043</v>
+        <v>1758</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>1241</v>
+        <v>1759</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>1426</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -9132,109 +9134,329 @@
       <c r="B166" s="10"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
+      <c r="E166" s="10"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="1:7" ht="60">
+    <row r="167" spans="1:7" ht="45">
       <c r="A167" s="9" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="105">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="135">
       <c r="A168" s="9" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="9"/>
-      <c r="B169" s="9"/>
+      <c r="B169" s="10"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
+      <c r="E169" s="10"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="1:7" ht="45">
+    <row r="170" spans="1:7" ht="90">
       <c r="A170" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="90">
+      <c r="A171" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="9"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+    </row>
+    <row r="173" spans="1:7" ht="60">
+      <c r="A173" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="60">
+      <c r="A174" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="9"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+    </row>
+    <row r="176" spans="1:7" ht="60">
+      <c r="A176" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="60">
+      <c r="A177" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="9"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+    </row>
+    <row r="179" spans="1:7" ht="60">
+      <c r="A179" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="105">
+      <c r="A180" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+    </row>
+    <row r="182" spans="1:7" ht="45">
+      <c r="A182" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B182" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C182" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="45">
+      <c r="A183" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C183" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D183" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="E170" s="9" t="s">
+      <c r="E183" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="F170" s="9" t="s">
+      <c r="F183" s="9" t="s">
         <v>1244</v>
       </c>
-      <c r="G170" s="9" t="s">
+      <c r="G183" s="9" t="s">
         <v>1429</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="45">
-      <c r="A171" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>854</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F171" s="9" t="s">
-        <v>1245</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>1430</v>
       </c>
     </row>
   </sheetData>
@@ -9262,7 +9484,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -9323,16 +9545,16 @@
         <v>493</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9346,16 +9568,16 @@
         <v>494</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9378,16 +9600,16 @@
         <v>495</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9410,16 +9632,16 @@
         <v>496</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9442,19 +9664,19 @@
         <v>497</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="75">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60">
       <c r="A11" s="9" t="s">
         <v>69</v>
       </c>
@@ -9465,16 +9687,16 @@
         <v>498</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9497,19 +9719,19 @@
         <v>499</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="90">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75">
       <c r="A14" s="9" t="s">
         <v>71</v>
       </c>
@@ -9520,16 +9742,16 @@
         <v>500</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9552,16 +9774,16 @@
         <v>501</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45">
@@ -9575,16 +9797,16 @@
         <v>502</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -9931,25 +10153,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
@@ -9986,16 +10208,16 @@
         <v>475</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10018,16 +10240,16 @@
         <v>476</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10050,16 +10272,16 @@
         <v>477</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10082,16 +10304,16 @@
         <v>478</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -10105,28 +10327,28 @@
     </row>
     <row r="11" spans="1:7" ht="45">
       <c r="A11" s="6" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>1679</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>1683</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
@@ -10137,19 +10359,19 @@
         <v>479</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
@@ -10160,16 +10382,16 @@
         <v>480</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45">
@@ -10183,16 +10405,16 @@
         <v>481</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45">
@@ -10206,16 +10428,16 @@
         <v>482</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10241,13 +10463,13 @@
         <v>298</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10270,16 +10492,16 @@
         <v>484</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10302,16 +10524,16 @@
         <v>485</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10334,16 +10556,16 @@
         <v>486</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10366,16 +10588,16 @@
         <v>487</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10398,16 +10620,16 @@
         <v>488</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -10421,7 +10643,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>304</v>
@@ -10433,13 +10655,13 @@
         <v>304</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -10453,7 +10675,7 @@
     </row>
     <row r="31" spans="1:7" ht="60">
       <c r="A31" s="14" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>305</v>
@@ -10462,16 +10684,16 @@
         <v>490</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -10488,91 +10710,91 @@
         <v>58</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>1568</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>1569</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>1570</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>1571</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>1572</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45">
       <c r="A34" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>1658</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>1659</v>
       </c>
-      <c r="C34" s="6" t="s">
+    </row>
+    <row r="35" spans="1:7" ht="60">
+      <c r="A35" s="6" t="s">
         <v>1660</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="B35" s="6" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30">
+      <c r="A36" s="6" t="s">
         <v>1661</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>1662</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>1663</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="75">
-      <c r="A35" s="6" t="s">
+      <c r="C36" s="6" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>1665</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="E36" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>1671</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>1673</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>1675</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="45">
-      <c r="A36" s="6" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>1670</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>1674</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>1676</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -10595,19 +10817,19 @@
         <v>491</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="135">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="120">
       <c r="A39" s="6" t="s">
         <v>52</v>
       </c>
@@ -10618,16 +10840,16 @@
         <v>492</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -10874,13 +11096,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40:G45"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10894,7 +11116,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -10952,16 +11174,16 @@
         <v>334</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>318</v>
@@ -10986,16 +11208,16 @@
         <v>379</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>319</v>
@@ -11023,13 +11245,13 @@
         <v>505</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>320</v>
@@ -11054,16 +11276,16 @@
         <v>380</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>321</v>
@@ -11091,16 +11313,16 @@
         <v>535</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -11119,22 +11341,22 @@
         <v>23</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -11158,20 +11380,20 @@
         <v>535</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="135">
+    <row r="16" spans="1:8" ht="120">
       <c r="A16" s="9" t="s">
         <v>144</v>
       </c>
@@ -11179,19 +11401,19 @@
         <v>382</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -11216,16 +11438,16 @@
         <v>538</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>280</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -11237,19 +11459,19 @@
         <v>383</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -11274,16 +11496,16 @@
         <v>540</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -11295,19 +11517,19 @@
         <v>283</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -11322,245 +11544,232 @@
         <v>542</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="30">
+      <c r="A25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>1102</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="G25" s="9" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="30">
+      <c r="A27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="D27" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>969</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>1161</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>1296</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="45">
-      <c r="A26" s="9" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>1448</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="G27" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6" t="s">
         <v>1450</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>1446</v>
-      </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>1561</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>1526</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="B29" s="12" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30">
       <c r="A30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>1532</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>1451</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30">
       <c r="A31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30">
       <c r="A32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>1543</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>1544</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30">
       <c r="A33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>1548</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>1549</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>1550</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30">
       <c r="A34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>1553</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>1554</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>1555</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>1556</v>
+        <v>44</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -11574,25 +11783,25 @@
     </row>
     <row r="36" spans="1:8" ht="30">
       <c r="A36" s="9" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>385</v>
+        <v>288</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>770</v>
+        <v>731</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -11606,286 +11815,104 @@
       <c r="G37" s="9"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="30">
+    <row r="38" spans="1:8" ht="60">
       <c r="A38" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>386</v>
+        <v>289</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>580</v>
+        <v>546</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>771</v>
+        <v>732</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>970</v>
+        <v>924</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>1162</v>
+        <v>1106</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="3"/>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="6" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>1633</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>1634</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30">
-      <c r="A41" s="9" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>1457</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30">
-      <c r="A42" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30">
-      <c r="A43" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30">
-      <c r="A44" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>1474</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="30">
-      <c r="A45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>1481</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>1482</v>
-      </c>
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" ht="30">
-      <c r="A47" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>924</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>1106</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>1299</v>
-      </c>
-      <c r="H47" s="3"/>
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" ht="60">
-      <c r="A49" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:1">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:1">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:1">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:1">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:1">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:1">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:1">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:1">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:1">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:1">
       <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3"/>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="3"/>
@@ -11916,39 +11943,6 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11958,13 +11952,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11976,7 +11970,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -12026,7 +12020,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -12037,16 +12031,16 @@
         <v>517</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12069,16 +12063,16 @@
         <v>518</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -12101,16 +12095,16 @@
         <v>519</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12133,16 +12127,16 @@
         <v>520</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -12154,7 +12148,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -12165,16 +12159,16 @@
         <v>521</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12197,16 +12191,16 @@
         <v>522</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -12229,10 +12223,10 @@
         <v>523</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>265</v>
@@ -12261,16 +12255,16 @@
         <v>524</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12293,16 +12287,16 @@
         <v>525</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -12319,22 +12313,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>526</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -12357,16 +12351,16 @@
         <v>527</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -12389,16 +12383,16 @@
         <v>528</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -12421,16 +12415,16 @@
         <v>529</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -12442,27 +12436,27 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="120">
+    <row r="29" spans="1:7" ht="105">
       <c r="A29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>1624</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>1625</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>1626</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="F29" s="9" t="s">
         <v>1627</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>1628</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -12485,16 +12479,16 @@
         <v>530</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -12517,16 +12511,16 @@
         <v>531</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -12549,13 +12543,13 @@
         <v>513</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>273</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>328</v>
@@ -12581,16 +12575,16 @@
         <v>532</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -12616,13 +12610,13 @@
         <v>275</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -12645,16 +12639,16 @@
         <v>534</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -12671,22 +12665,22 @@
         <v>20</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>1437</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>1438</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="E43" s="9" t="s">
         <v>1439</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>1440</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>1441</v>
-      </c>
       <c r="G43" s="9" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -12703,22 +12697,22 @@
         <v>21</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>1432</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="E45" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>1435</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>1433</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>1436</v>
-      </c>
       <c r="G45" s="9" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -12741,16 +12735,16 @@
         <v>535</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -12767,22 +12761,22 @@
         <v>23</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -12805,16 +12799,16 @@
         <v>536</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -12826,7 +12820,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" ht="150">
+    <row r="53" spans="1:7" ht="135">
       <c r="A53" s="9" t="s">
         <v>25</v>
       </c>
@@ -12837,16 +12831,16 @@
         <v>537</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -12869,16 +12863,16 @@
         <v>538</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>280</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -12890,7 +12884,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" ht="75">
+    <row r="57" spans="1:7" ht="60">
       <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
@@ -12901,16 +12895,16 @@
         <v>539</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -12922,7 +12916,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" ht="60">
+    <row r="59" spans="1:7" ht="45">
       <c r="A59" s="9" t="s">
         <v>28</v>
       </c>
@@ -12933,16 +12927,16 @@
         <v>540</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -12965,16 +12959,16 @@
         <v>541</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -12997,16 +12991,16 @@
         <v>542</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -13020,25 +13014,25 @@
     </row>
     <row r="65" spans="1:7" ht="30">
       <c r="A65" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>1636</v>
+        <v>286</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>543</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>1637</v>
+        <v>729</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>921</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1638</v>
+        <v>1103</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>1639</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -13050,27 +13044,27 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" ht="45">
+    <row r="67" spans="1:7" ht="30">
       <c r="A67" s="9" t="s">
-        <v>1444</v>
+        <v>40</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>1445</v>
+        <v>287</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>1447</v>
+        <v>544</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>1448</v>
+        <v>730</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>1449</v>
+        <v>922</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1450</v>
+        <v>1104</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>1446</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -13083,439 +13077,205 @@
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>1561</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="A69" s="6" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30">
       <c r="A70" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>1526</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>1451</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30">
       <c r="A71" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>1532</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30">
       <c r="A72" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30">
       <c r="A73" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>1543</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>1544</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30">
       <c r="A74" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>1548</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>1549</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>1550</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>1563</v>
+        <v>44</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>1553</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>1554</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>1555</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" ht="30">
-      <c r="A77" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>922</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" ht="30">
-      <c r="A79" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C79" s="9" t="s">
+      <c r="A75" s="9"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:7" ht="30">
+      <c r="A76" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D76" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E76" s="9" t="s">
         <v>923</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F76" s="9" t="s">
         <v>1105</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G76" s="9" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="6" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>1633</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>1634</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="30">
-      <c r="A82" s="9" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>1457</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="30">
-      <c r="A83" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="30">
-      <c r="A84" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="30">
-      <c r="A85" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>1474</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G85" s="12" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="30">
-      <c r="A86" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>1481</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="9"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-    </row>
-    <row r="88" spans="1:7" ht="30">
-      <c r="A88" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C88" s="9" t="s">
+    <row r="77" spans="1:7">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="60">
+      <c r="A78" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D78" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E78" s="9" t="s">
         <v>924</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F78" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="G88" s="9" t="s">
+      <c r="G78" s="9" t="s">
         <v>1299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="1:7" ht="60">
-      <c r="A90" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>1300</v>
       </c>
     </row>
   </sheetData>
@@ -13528,8 +13288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A19" sqref="A19:A26"/>
@@ -13543,7 +13303,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -13604,13 +13364,13 @@
         <v>503</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>318</v>
@@ -13636,13 +13396,13 @@
         <v>504</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>319</v>
@@ -13668,13 +13428,13 @@
         <v>505</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>320</v>
@@ -13700,13 +13460,13 @@
         <v>506</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>321</v>
@@ -13732,13 +13492,13 @@
         <v>507</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>322</v>
@@ -13764,13 +13524,13 @@
         <v>508</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>323</v>
@@ -13796,13 +13556,13 @@
         <v>509</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>324</v>
@@ -13822,22 +13582,22 @@
         <v>81</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>1642</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>1646</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -13851,25 +13611,25 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="23" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>1820</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>1824</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13881,7 +13641,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>82</v>
       </c>
@@ -13892,13 +13652,13 @@
         <v>510</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>325</v>
@@ -13915,53 +13675,53 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>1803</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>1808</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>342</v>
@@ -13973,36 +13733,36 @@
         <v>342</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -14025,19 +13785,19 @@
         <v>511</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30">
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>84</v>
       </c>
@@ -14050,7 +13810,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="13" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>344</v>
@@ -14059,16 +13819,16 @@
         <v>512</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -14129,7 +13889,7 @@
         <v>345</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>345</v>
@@ -14161,10 +13921,10 @@
         <v>346</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -14187,13 +13947,13 @@
         <v>513</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>273</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>328</v>
@@ -14219,13 +13979,13 @@
         <v>514</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>329</v>
@@ -14251,13 +14011,13 @@
         <v>515</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>330</v>
@@ -14283,13 +14043,13 @@
         <v>516</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>331</v>
@@ -14559,7 +14319,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -14617,19 +14377,19 @@
         <v>350</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -14681,19 +14441,19 @@
         <v>352</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14722,7 +14482,7 @@
         <v>89</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>89</v>
@@ -14745,19 +14505,19 @@
         <v>353</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -14789,7 +14549,7 @@
         <v>354</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -14809,19 +14569,19 @@
         <v>355</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -14847,13 +14607,13 @@
         <v>93</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>93</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -14873,19 +14633,19 @@
         <v>356</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -14911,7 +14671,7 @@
         <v>95</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>95</v>
@@ -14937,19 +14697,19 @@
         <v>357</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -15001,19 +14761,19 @@
         <v>358</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -15065,19 +14825,19 @@
         <v>359</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -15129,19 +14889,19 @@
         <v>360</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -15193,19 +14953,19 @@
         <v>361</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -15257,19 +15017,19 @@
         <v>362</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -15313,7 +15073,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7" ht="45">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="6" t="s">
         <v>108</v>
       </c>
@@ -15321,19 +15081,19 @@
         <v>363</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -15385,19 +15145,19 @@
         <v>364</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -15409,7 +15169,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" ht="30">
+    <row r="53" spans="1:7">
       <c r="A53" s="6" t="s">
         <v>111</v>
       </c>
@@ -15417,13 +15177,13 @@
         <v>111</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>111</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>111</v>
@@ -15449,19 +15209,19 @@
         <v>365</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -15481,19 +15241,19 @@
         <v>366</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -15525,7 +15285,7 @@
         <v>114</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -15545,19 +15305,19 @@
         <v>367</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>367</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -15586,7 +15346,7 @@
         <v>116</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>116</v>
@@ -15609,19 +15369,19 @@
         <v>368</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -15650,10 +15410,10 @@
         <v>118</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -15673,19 +15433,19 @@
         <v>369</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -15708,13 +15468,13 @@
         <v>120</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>120</v>
@@ -15737,19 +15497,19 @@
         <v>370</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -15775,7 +15535,7 @@
         <v>122</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>122</v>
@@ -15801,19 +15561,19 @@
         <v>371</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>371</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -15865,19 +15625,19 @@
         <v>372</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -15906,7 +15666,7 @@
         <v>126</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>126</v>
@@ -15929,19 +15689,19 @@
         <v>373</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -15993,19 +15753,19 @@
         <v>374</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -16057,19 +15817,19 @@
         <v>375</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -16113,7 +15873,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:7" ht="30">
+    <row r="97" spans="1:7">
       <c r="A97" s="6" t="s">
         <v>133</v>
       </c>
@@ -16121,19 +15881,19 @@
         <v>376</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -16162,7 +15922,7 @@
         <v>134</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>134</v>
@@ -16185,19 +15945,19 @@
         <v>363</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -16223,13 +15983,13 @@
         <v>136</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -16249,19 +16009,19 @@
         <v>364</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -16281,16 +16041,16 @@
         <v>138</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>138</v>
@@ -16313,19 +16073,19 @@
         <v>365</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -16345,19 +16105,19 @@
         <v>377</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -16380,16 +16140,16 @@
         <v>141</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -16409,19 +16169,19 @@
         <v>378</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -16473,7 +16233,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16484,7 +16244,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -16542,19 +16302,19 @@
         <v>387</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -16574,19 +16334,19 @@
         <v>388</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -16609,16 +16369,16 @@
         <v>389</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -16638,19 +16398,19 @@
         <v>390</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -16670,19 +16430,19 @@
         <v>391</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -16694,7 +16454,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="120">
+    <row r="13" spans="1:7" ht="105">
       <c r="A13" s="6" t="s">
         <v>154</v>
       </c>
@@ -16702,19 +16462,19 @@
         <v>392</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="14" spans="1:7">

--- a/app/help/@help.xlsx
+++ b/app/help/@help.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="8" r:id="rId1"/>
@@ -5373,60 +5373,67 @@
 - 排除所有缓存目录：\"\\cache\"</t>
   </si>
   <si>
+    <t>選択はファイルを同期対象にします。除外は同期対象からファイルを除外します。選択されたファイルと同じファイルが除外さている場合は除外が優先されます。</t>
+  </si>
+  <si>
+    <t>选择使文件可用于同步。 排除将文件排除在同步之外。 如果与所选文件相同的文件被排除，则优先排除。</t>
+  </si>
+  <si>
+    <t>Select makes files available for synchronization. Exclude excludes a file from being synchronized. If the same file as the selected file is excluded, the exclusion will take precedence.</t>
+  </si>
+  <si>
+    <t>Wählen Sie macht Dateien für die Synchronisierung verfügbar. Ausschließen schließt eine Datei von der Synchronisierung aus. Wenn die gleiche Datei wie die ausgewählte Datei ausgeschlossen ist, hat der Ausschluss Vorrang.</t>
+  </si>
+  <si>
+    <t>Select rend les fichiers disponibles pour la synchronisation. Exclure exclut un fichier de la synchronisation. Si le même fichier que le fichier sélectionné est exclu, l'exclusion sera prioritaire.</t>
+  </si>
+  <si>
+    <t>Selezionare rende i file disponibili per la sincronizzazione. Exclude esclude un file dall'essere sincronizzato. Se lo stesso file del file selezionato è escluso, l'esclusione avrà la precedenza.</t>
+  </si>
+  <si>
+    <t>Выбор делает файлы доступными для синхронизации. Исключение исключает синхронизацию файла. Если тот же самый файл, что и выбранный, будет исключен, то исключение будет иметь приоритет.</t>
+  </si>
+  <si>
     <t>選択または除外するファイル名です。 
 - ワイルドカード : \"My*.jpg\"
-- 特定箇所の文字指定: \"dsc_???\"</t>
+- 特定箇所の文字指定: \"dsc_???.mov\"
+- 複数指定: \"\*.jpg;*.mp3\"</t>
   </si>
   <si>
     <t>The name of the directory to select or exclude. 
 - wildcard : \"My*\"
-- Specify a character for a specific location: \"dsc_???\"</t>
+- Specify a character for a specific location: \"dsc_???.mov\"
+- Multiple: \"\*.jpg;*.mp3\"</t>
   </si>
   <si>
     <t>Der Name des Verzeichnisses, das ausgewählt oder ausgeschlossen werden soll. 
 - Wildcard : \"Mein*\"
-- Spezifizieren Sie ein bestimmtes Zeichen: \"dsc_???\"</t>
+- Spezifizieren Sie ein bestimmtes Zeichen: \"dsc_???.mov\"
+- Mehrfach: \"\*.jpg;*.mp3\"</t>
   </si>
   <si>
     <t>Le nom du répertoire à sélectionner ou à exclure. 
 - wildcard : \"Mon*\"
-- Spécifier un caractère spécifique : \"dsc_???\"</t>
+- Spécifier un caractère spécifique : \"dsc_???.mov\"
+- Multiple : \"\*.jpg;*.mp3\"</t>
   </si>
   <si>
     <t>Il nome della directory da selezionare o escludere. 
 - wildcard : \"My*\"
-- Specificare un carattere specifico: \"dsc_???\"</t>
+- Specificare un carattere specifico: \"dsc_???.mov\"
+- Multiplo: \"\*.jpg;*.mp3\"</t>
+  </si>
+  <si>
+    <t>Имя каталога для выбора или исключения. 
+- дикая карточка: \"Моя*\"
+- Укажите конкретный символ: \"dsc_???.mov\"
+- Множественное: \"\*.jpg;*.mp3\"</t>
   </si>
   <si>
     <t>要选择或排除的目录名称。
 - wildcard：\"My*\"
-- 指定一个特定的字符：\"dsc_???\"</t>
-  </si>
-  <si>
-    <t>選択はファイルを同期対象にします。除外は同期対象からファイルを除外します。選択されたファイルと同じファイルが除外さている場合は除外が優先されます。</t>
-  </si>
-  <si>
-    <t>选择使文件可用于同步。 排除将文件排除在同步之外。 如果与所选文件相同的文件被排除，则优先排除。</t>
-  </si>
-  <si>
-    <t>Select makes files available for synchronization. Exclude excludes a file from being synchronized. If the same file as the selected file is excluded, the exclusion will take precedence.</t>
-  </si>
-  <si>
-    <t>Wählen Sie macht Dateien für die Synchronisierung verfügbar. Ausschließen schließt eine Datei von der Synchronisierung aus. Wenn die gleiche Datei wie die ausgewählte Datei ausgeschlossen ist, hat der Ausschluss Vorrang.</t>
-  </si>
-  <si>
-    <t>Select rend les fichiers disponibles pour la synchronisation. Exclure exclut un fichier de la synchronisation. Si le même fichier que le fichier sélectionné est exclu, l'exclusion sera prioritaire.</t>
-  </si>
-  <si>
-    <t>Selezionare rende i file disponibili per la sincronizzazione. Exclude esclude un file dall'essere sincronizzato. Se lo stesso file del file selezionato è escluso, l'esclusione avrà la precedenza.</t>
-  </si>
-  <si>
-    <t>Выбор делает файлы доступными для синхронизации. Исключение исключает синхронизацию файла. Если тот же самый файл, что и выбранный, будет исключен, то исключение будет иметь приоритет.</t>
-  </si>
-  <si>
-    <t>Имя каталога для выбора или исключения. 
-- дикая карточка: \"Моя*\"
-- Укажите конкретный символ: \"dsc_???\"</t>
+- 指定一个特定的字符：\"dsc_???.mov\"
+- 多重：/"\*.jpg;*.mp3/"</t>
   </si>
 </sst>
 </file>
@@ -15971,11 +15978,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16068,27 +16075,27 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="90">
-      <c r="A5" s="6" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1777</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F5" s="6" t="s">
+    <row r="5" spans="1:7" ht="105">
+      <c r="A5" s="9" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>1789</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -16134,25 +16141,25 @@
     </row>
     <row r="9" spans="1:7" ht="105">
       <c r="A9" s="6" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>1782</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1786</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1788</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -16499,6 +16506,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16506,11 +16514,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16668,25 +16676,25 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="120">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>1770</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>1773</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>1774</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>1772</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="9" t="s">
         <v>1771</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>1769</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="9" t="s">
         <v>1775</v>
       </c>
     </row>

--- a/app/help/@help.xlsx
+++ b/app/help/@help.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="8" r:id="rId1"/>
@@ -5331,109 +5331,125 @@
     <t xml:space="preserve">充電中だけ同期を開始できます。充電していない時に同期を開始するとエラーとなり後続の同期タスクの開始を中止します。 </t>
   </si>
   <si>
+    <t>選択はファイルを同期対象にします。除外は同期対象からファイルを除外します。選択されたファイルと同じファイルが除外さている場合は除外が優先されます。</t>
+  </si>
+  <si>
+    <t>选择使文件可用于同步。 排除将文件排除在同步之外。 如果与所选文件相同的文件被排除，则优先排除。</t>
+  </si>
+  <si>
+    <t>Select makes files available for synchronization. Exclude excludes a file from being synchronized. If the same file as the selected file is excluded, the exclusion will take precedence.</t>
+  </si>
+  <si>
+    <t>Wählen Sie macht Dateien für die Synchronisierung verfügbar. Ausschließen schließt eine Datei von der Synchronisierung aus. Wenn die gleiche Datei wie die ausgewählte Datei ausgeschlossen ist, hat der Ausschluss Vorrang.</t>
+  </si>
+  <si>
+    <t>Select rend les fichiers disponibles pour la synchronisation. Exclure exclut un fichier de la synchronisation. Si le même fichier que le fichier sélectionné est exclu, l'exclusion sera prioritaire.</t>
+  </si>
+  <si>
+    <t>Selezionare rende i file disponibili per la sincronizzazione. Exclude esclude un file dall'essere sincronizzato. Se lo stesso file del file selezionato è escluso, l'esclusione avrà la precedenza.</t>
+  </si>
+  <si>
+    <t>Выбор делает файлы доступными для синхронизации. Исключение исключает синхронизацию файла. Если тот же самый файл, что и выбранный, будет исключен, то исключение будет иметь приоритет.</t>
+  </si>
+  <si>
     <t>Имя каталога для выбора или исключения. 
--дикая карточка: \"Моя*\"
--Укажите конкретный символ: \"fo?der\"
--Включить все каталоги кэша: \"\\cache\"</t>
+-дикая карточка: Моя*
+-Укажите конкретный символ: fo?der
+-Включить все каталоги кэша: \\cache</t>
+  </si>
+  <si>
+    <t>要选择或排除的目录名称。
+- wildcard：My*
+- 指定一个特定的字符：fo?der
+- 排除所有缓存目录：\\cache</t>
+  </si>
+  <si>
+    <t>Имя каталога для выбора или исключения. 
+- дикая карточка: Моя*.jpg
+- Укажите конкретный символ: dsc_???.mov
+- Множественное: \*.jpg;*.mp3</t>
+  </si>
+  <si>
+    <t>選択または除外するファイル名です。 
+- ワイルドカード : My*.jpg
+- 特定箇所の文字指定: dsc_???.mov
+- フィルターは\";\"で区切り複数可能: \*.jpg;*.mp3
+- 除外が優先されます</t>
   </si>
   <si>
     <t>選択または除外するディレクトリー名です。 
-- ワイルドカード : \"My*\"
-- 特定箇所の文字指定: \"fo?der\"
-- 全てのcacheディレクトリーを除外 : \"\\cache\"</t>
+- ワイルドカード : My*
+- 特定箇所の文字指定: fo?der
+- 全てのcacheディレクトリーを除外 : \\cache
+- フィルターは\";\"で区切り複数可能: audio;video;
+- 除外が優先されます</t>
+  </si>
+  <si>
+    <t>The name of the directory to select or exclude. 
+- wildcard : My*
+- Specify a character for a specific location: fo?der
+- Exclude all cache directories: \\cache
+- filters can be entered in same line, separated by \";\": audio;video;
+- exclude filter wins</t>
+  </si>
+  <si>
+    <t>Der Name des Verzeichnisses, das ausgewählt oder ausgeschlossen werden soll. 
+- Wildcard : Mein*
+- Spezifizieren Sie ein bestimmtes Zeichen: fo?der
+- Schließen Sie alle Cache-Verzeichnisse aus: \\cache
+- Filter können in derselben Zeile eingegeben werden, getrennt durch \";\": audio;video
+- ausschließender Filter gewinnt</t>
+  </si>
+  <si>
+    <t>Le nom du répertoire à sélectionner ou à exclure. 
+- wildcard : Mon*
+- Spécifier un caractère spécifique : fo?der.
+- Exclure tous les répertoires de cache : \\cache
+- les filtres peuvent être saisis en une seule ligne, séparés par \";\": audio;video;
+- le filtre Exclure est prioritaire</t>
   </si>
   <si>
     <t>Il nome della directory da selezionare o escludere. 
-- wildcard : \"My*\"
-- Specificare un carattere specifico: \"fo?der\"
-- Escludi tutte le directory della cache: \"\\cache\"</t>
+- wildcard : My*
+- Specificare un carattere specifico: fo?der
+- Escludi tutte le directory della cache: \\cache
+- i filtri possono essere inseriti nella stessa riga, separati da \";\": audio;video;
+- escludere le vittorie dei filtri</t>
+  </si>
+  <si>
+    <t>The name of the directory to select or exclude. 
+- wildcard : My*.jpg
+- Specify a character for a specific location: dsc_???.mov
+- filters can be entered in same line, separated by \";\": \*.jpg;\*.mp3
+- exclude filter wins</t>
+  </si>
+  <si>
+    <t>Der Name des Verzeichnisses, das ausgewählt oder ausgeschlossen werden soll. 
+- Wildcard : Mein*.jpg
+- Spezifizieren Sie ein bestimmtes Zeichen: dsc_???.mov
+- Filter können in derselben Zeile eingegeben werden, getrennt durch \";\": \*.jpg;*.mp3
+- ausschließender Filter gewinnt</t>
   </si>
   <si>
     <t>Le nom du répertoire à sélectionner ou à exclure. 
-- wildcard : \"Mon*\"
-- Spécifier un caractère spécifique : \"fo?der\".
-- Exclure tous les répertoires de cache : \"\\cache\"</t>
-  </si>
-  <si>
-    <t>The name of the directory to select or exclude. 
-- wildcard : \"My*\"
-- Specify a character for a specific location: \"fo?der\"
-- Exclude all cache directories: \"\\cache\"</t>
-  </si>
-  <si>
-    <t>Der Name des Verzeichnisses, das ausgewählt oder ausgeschlossen werden soll. 
-- Wildcard : \"Mein*\"
-- Spezifizieren Sie ein bestimmtes Zeichen: \"fo?der\"
-- Schließen Sie alle Cache-Verzeichnisse aus: \"\\cache\"</t>
+- wildcard : Mon*.jpg
+- Spécifier un caractère spécifique : dsc_???.mov
+- les filtres peuvent être saisis en une seule ligne, séparés par \";\": \*.jpg;*.mp3
+- le filtre Exclure est prioritaire</t>
+  </si>
+  <si>
+    <t>Il nome della directory da selezionare o escludere. 
+- wildcard : My*.*
+- Specificare un carattere specifico: dsc_???.mov
+- i filtri possono essere inseriti nella stessa riga, separati da \";\": \*.jpg;*.mp3
+- escludere le vittorie dei filtri</t>
   </si>
   <si>
     <t>要选择或排除的目录名称。
-- wildcard：\"My*\"
-- 指定一个特定的字符：\"fo?der\"
-- 排除所有缓存目录：\"\\cache\"</t>
-  </si>
-  <si>
-    <t>選択はファイルを同期対象にします。除外は同期対象からファイルを除外します。選択されたファイルと同じファイルが除外さている場合は除外が優先されます。</t>
-  </si>
-  <si>
-    <t>选择使文件可用于同步。 排除将文件排除在同步之外。 如果与所选文件相同的文件被排除，则优先排除。</t>
-  </si>
-  <si>
-    <t>Select makes files available for synchronization. Exclude excludes a file from being synchronized. If the same file as the selected file is excluded, the exclusion will take precedence.</t>
-  </si>
-  <si>
-    <t>Wählen Sie macht Dateien für die Synchronisierung verfügbar. Ausschließen schließt eine Datei von der Synchronisierung aus. Wenn die gleiche Datei wie die ausgewählte Datei ausgeschlossen ist, hat der Ausschluss Vorrang.</t>
-  </si>
-  <si>
-    <t>Select rend les fichiers disponibles pour la synchronisation. Exclure exclut un fichier de la synchronisation. Si le même fichier que le fichier sélectionné est exclu, l'exclusion sera prioritaire.</t>
-  </si>
-  <si>
-    <t>Selezionare rende i file disponibili per la sincronizzazione. Exclude esclude un file dall'essere sincronizzato. Se lo stesso file del file selezionato è escluso, l'esclusione avrà la precedenza.</t>
-  </si>
-  <si>
-    <t>Выбор делает файлы доступными для синхронизации. Исключение исключает синхронизацию файла. Если тот же самый файл, что и выбранный, будет исключен, то исключение будет иметь приоритет.</t>
-  </si>
-  <si>
-    <t>選択または除外するファイル名です。 
-- ワイルドカード : \"My*.jpg\"
-- 特定箇所の文字指定: \"dsc_???.mov\"
-- 複数指定: \"\*.jpg;*.mp3\"</t>
-  </si>
-  <si>
-    <t>The name of the directory to select or exclude. 
-- wildcard : \"My*\"
-- Specify a character for a specific location: \"dsc_???.mov\"
-- Multiple: \"\*.jpg;*.mp3\"</t>
-  </si>
-  <si>
-    <t>Der Name des Verzeichnisses, das ausgewählt oder ausgeschlossen werden soll. 
-- Wildcard : \"Mein*\"
-- Spezifizieren Sie ein bestimmtes Zeichen: \"dsc_???.mov\"
-- Mehrfach: \"\*.jpg;*.mp3\"</t>
-  </si>
-  <si>
-    <t>Le nom du répertoire à sélectionner ou à exclure. 
-- wildcard : \"Mon*\"
-- Spécifier un caractère spécifique : \"dsc_???.mov\"
-- Multiple : \"\*.jpg;*.mp3\"</t>
-  </si>
-  <si>
-    <t>Il nome della directory da selezionare o escludere. 
-- wildcard : \"My*\"
-- Specificare un carattere specifico: \"dsc_???.mov\"
-- Multiplo: \"\*.jpg;*.mp3\"</t>
-  </si>
-  <si>
-    <t>Имя каталога для выбора или исключения. 
-- дикая карточка: \"Моя*\"
-- Укажите конкретный символ: \"dsc_???.mov\"
-- Множественное: \"\*.jpg;*.mp3\"</t>
-  </si>
-  <si>
-    <t>要选择或排除的目录名称。
-- wildcard：\"My*\"
-- 指定一个特定的字符：\"dsc_???.mov\"
-- 多重：/"\*.jpg;*.mp3/"</t>
+- wildcard：My*.jpg
+- 指定一个特定的字符：dsc_???.mov
+- 过滤器可以在同一行输入，用\";\"隔开。：\*.jpg;*.mp3
+- 胜出</t>
   </si>
 </sst>
 </file>
@@ -15978,11 +15994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16075,24 +16091,24 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="105">
+    <row r="5" spans="1:7" ht="150">
       <c r="A5" s="9" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1788</v>
+        <v>1778</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>1789</v>
@@ -16141,25 +16157,25 @@
     </row>
     <row r="9" spans="1:7" ht="105">
       <c r="A9" s="6" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1778</v>
+        <v>1771</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -16514,11 +16530,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16675,27 +16691,27 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="120">
+    <row r="9" spans="1:7" ht="180">
       <c r="A9" s="9" t="s">
-        <v>1770</v>
+        <v>1780</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1772</v>
+        <v>1783</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1771</v>
+        <v>1784</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1769</v>
+        <v>1776</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/app/help/@help.xlsx
+++ b/app/help/@help.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="8" r:id="rId1"/>
@@ -663,9 +663,6 @@
     <t xml:space="preserve">### 宛先ファイルの最終更新時刻をソースと同じにしない  </t>
   </si>
   <si>
-    <t xml:space="preserve">SmbFile#setLastModified()やFile#setLastModified()が失敗する場合に有効にしてください。これにより、ファイルの差分判定はファイルの存在の有無とファイルサイズで判定されます。 </t>
-  </si>
-  <si>
     <t xml:space="preserve">### 差分判定にファイルサイズを使用する  </t>
   </si>
   <si>
@@ -4983,9 +4980,6 @@
     <t>如果源文件夹是SMB，则处理时间将更长，因为目录结构及其内容是通过网络扫描的。 强烈建议启用选项“使用SMB2协商”，因为SMB1会非常慢。</t>
   </si>
   <si>
-    <t>如果出现SmbFile#setLastModified()/File#setLastModified()失败等错误，请启用。这意味着远程主机不允许设置文件的最后修改时间。如果不勾选，复制文件在目标机上的最后修改时间将被设置为复制/同步的时间。这意味着目标文件会比源文件更新。</t>
-  </si>
-  <si>
     <t xml:space="preserve">If checked, the file will be overwritten only when the source file is newer than the destination file even if the file sizes and the last update times are different. Keep in mind that if you change time zones or if the files are modified during the interval period of the Day Light Saving Time change, the last modified file could appear older than the non-updated file. This is related to the file system differences and only a manual check before overwriting the file will avoid data loss. It is generally recommended to not modify files during the interval of day light saving time change if they are meant to be auto-synchronized. </t>
   </si>
   <si>
@@ -5071,21 +5065,6 @@
   </si>
   <si>
     <t>勾选后，将首先删除目标文件夹上存在的但源文件夹上不存在的目录和文件。之后，不同的文件和文件夹将被复制到目的地。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enable if you get an error like SmbFile#setLastModified()/File#setLastModified() fails. It means that the remote host doesn’t allow setting file last modified time. If unchecked, the last modified time of the copied file on the destination will be set to the time it was copied / synchronized. This means that the destination file will appear newer than the source. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bitte aktivieren Sie, wenn Sie eine Fehlermeldung wie SmbFile#setLastModified()/File#setLastModified() erhalten, die fehlschlägt. Das bedeutet, dass der Remote-Host das Setzen der letzten Änderungszeit der Datei nicht zulässt. Wenn diese Option nicht aktiviert ist, wird die Zeit der letzten Änderung der kopierten Datei auf dem Zielhost auf die Zeit gesetzt, zu der sie kopiert / synchronisiert wurde. Dies bedeutet, dass die Zieldatei neuer erscheint als die Quelle. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veuillez l'activer si vous obtenez une erreur du type SmbFile#setLastModified()/File#setLastModified() fails. Cela signifie que l'hôte distant n'autorise pas le paramétrage du fichier de la dernière modification. Si cette case n'est pas cochée, la dernière heure de modification du fichier copié sur la destination sera fixée à l'heure à laquelle il a été copié / synchronisé. Cela signifie que le fichier de destination apparaîtra plus récent que la source. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si prega di abilitare se si ottiene un errore come SmbFile#setLastModified()/File#setLastModified() fallisce. Significa che l'host remoto non permette l'impostazione del file modificato l'ultima volta. Se deselezionato, l'ultimo orario modificato del file copiato sulla destinazione sarà impostato all'orario in cui è stato copiato / sincronizzato. Ciò significa che il file di destinazione apparirà più nuovo del sorgente. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пожалуйста, включите, если вы получаете ошибку, подобную ошибке SmbFile#setLastModified()/File#setLastModified(). Это означает, что удаленный хост не позволяет установить файл, который был изменен в последний раз. Если убрать флажок, то последнее измененное время скопированного файла по назначению будет установлено на время его копирования / синхронизации. Это означает, что целевой файл будет выглядеть более новым, чем источник. </t>
   </si>
   <si>
     <t xml:space="preserve">  Faites une copie différentielle du répertoire et du fichier côté source vers le côté destination, et supprimez le fichier côté source copié vers le côté destination. Toutefois, le fichier portant le même nom que la source et la destination mais ayant la même taille et la même date de modification n'est pas copié et le fichier du côté source est supprimé.</t>
@@ -5492,6 +5471,27 @@
   </si>
   <si>
     <t>你可以停用该过滤器。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmbFile.setLastModified()やFile.setLastModified()が失敗する場合に有効にしてください。これにより、ファイルの差分判定はファイルの存在の有無とファイルサイズで判定されます。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enable if you get an error like SmbFile.setLastModified()/File.setLastModified() fails. It means that the remote host doesn’t allow setting file last modified time. If unchecked, the last modified time of the copied file on the destination will be set to the time it was copied / synchronized. This means that the destination file will appear newer than the source. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte aktivieren Sie, wenn Sie eine Fehlermeldung wie SmbFile.setLastModified()/File.setLastModified() erhalten, die fehlschlägt. Das bedeutet, dass der Remote-Host das Setzen der letzten Änderungszeit der Datei nicht zulässt. Wenn diese Option nicht aktiviert ist, wird die Zeit der letzten Änderung der kopierten Datei auf dem Zielhost auf die Zeit gesetzt, zu der sie kopiert / synchronisiert wurde. Dies bedeutet, dass die Zieldatei neuer erscheint als die Quelle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez l'activer si vous obtenez une erreur du type SmbFile.setLastModified()/File.setLastModified() fails. Cela signifie que l'hôte distant n'autorise pas le paramétrage du fichier de la dernière modification. Si cette case n'est pas cochée, la dernière heure de modification du fichier copié sur la destination sera fixée à l'heure à laquelle il a été copié / synchronisé. Cela signifie que le fichier de destination apparaîtra plus récent que la source. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si prega di abilitare se si ottiene un errore come SmbFile.setLastModified()/File.setLastModified() fallisce. Significa che l'host remoto non permette l'impostazione del file modificato l'ultima volta. Se deselezionato, l'ultimo orario modificato del file copiato sulla destinazione sarà impostato all'orario in cui è stato copiato / sincronizzato. Ciò significa che il file di destinazione apparirà più nuovo del sorgente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пожалуйста, включите, если вы получаете ошибку, подобную ошибке SmbFile.setLastModified()/File.setLastModified(). Это означает, что удаленный хост не позволяет установить файл, который был изменен в последний раз. Если убрать флажок, то последнее измененное время скопированного файла по назначению будет установлено на время его копирования / синхронизации. Это означает, что целевой файл будет выглядеть более новым, чем источник. </t>
+  </si>
+  <si>
+    <t>如果出现SmbFile.setLastModified()/File.setLastModified()失败等错误，请启用。这意味着远程主机不允许设置文件的最后修改时间。如果不勾选，复制文件在目标机上的最后修改时间将被设置为复制/同步的时间。这意味着目标文件会比源文件更新。</t>
   </si>
 </sst>
 </file>
@@ -6058,11 +6058,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6074,7 +6074,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -6103,25 +6103,25 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6129,22 +6129,22 @@
         <v>152</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6158,25 +6158,25 @@
     </row>
     <row r="5" spans="1:7" ht="135">
       <c r="A5" s="9" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6193,22 +6193,22 @@
         <v>153</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6225,22 +6225,22 @@
         <v>154</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6257,22 +6257,22 @@
         <v>155</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6289,22 +6289,22 @@
         <v>156</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6321,45 +6321,45 @@
         <v>157</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="105">
       <c r="A16" s="9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>1625</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>1626</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>1627</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>1628</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>1629</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6367,22 +6367,22 @@
         <v>158</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="105">
@@ -6390,22 +6390,22 @@
         <v>159</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>1388</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>1389</v>
-      </c>
       <c r="G18" s="9" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6422,22 +6422,22 @@
         <v>160</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>1491</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>1492</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>1493</v>
-      </c>
       <c r="G20" s="6" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6451,25 +6451,25 @@
     </row>
     <row r="22" spans="1:7" ht="150">
       <c r="A22" s="9" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>1688</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>1695</v>
-      </c>
       <c r="G22" s="9" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6486,22 +6486,22 @@
         <v>161</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>1494</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>1495</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>1496</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>1497</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60">
@@ -6509,22 +6509,22 @@
         <v>162</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>1393</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>1394</v>
-      </c>
       <c r="G25" s="9" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6541,22 +6541,22 @@
         <v>163</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>1498</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>1486</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>1499</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>1500</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="120">
@@ -6564,22 +6564,22 @@
         <v>164</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>1398</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>1399</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>1400</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>1401</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>1402</v>
-      </c>
       <c r="G28" s="9" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6596,22 +6596,22 @@
         <v>165</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>1403</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>1405</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>1404</v>
-      </c>
       <c r="G30" s="9" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6628,22 +6628,22 @@
         <v>166</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6651,22 +6651,22 @@
         <v>167</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="90">
@@ -6674,22 +6674,22 @@
         <v>168</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6706,22 +6706,22 @@
         <v>169</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30">
@@ -6729,22 +6729,22 @@
         <v>170</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6761,22 +6761,22 @@
         <v>171</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6793,22 +6793,22 @@
         <v>172</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6825,22 +6825,22 @@
         <v>173</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6857,22 +6857,22 @@
         <v>174</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6886,48 +6886,48 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="9" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45">
       <c r="A48" s="9" t="s">
-        <v>1721</v>
+        <v>1714</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6941,25 +6941,25 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="9" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1738</v>
+        <v>1731</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6973,25 +6973,25 @@
     </row>
     <row r="52" spans="1:8" ht="45">
       <c r="A52" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>1769</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>1773</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>1775</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7005,25 +7005,25 @@
     </row>
     <row r="54" spans="1:8" ht="30">
       <c r="A54" s="9" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>1739</v>
+        <v>1732</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>1735</v>
+        <v>1728</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7037,25 +7037,25 @@
     </row>
     <row r="56" spans="1:8" ht="45">
       <c r="A56" s="9" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>1770</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>1780</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>1781</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>1782</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7072,22 +7072,22 @@
         <v>29</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H58" s="3"/>
     </row>
@@ -7103,25 +7103,25 @@
     </row>
     <row r="60" spans="1:8" s="4" customFormat="1" ht="45">
       <c r="A60" s="9" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>1346</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="9" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>1347</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>1352</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>1348</v>
       </c>
       <c r="H60" s="3"/>
     </row>
@@ -7139,22 +7139,22 @@
         <v>30</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>1459</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>1460</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>1461</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>1462</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>1463</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1">
@@ -7162,22 +7162,22 @@
         <v>31</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>1424</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>1425</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>1426</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="F63" s="6" t="s">
         <v>1427</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="G63" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1">
@@ -7185,22 +7185,22 @@
         <v>32</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>1430</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>1431</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>1432</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="6" t="s">
         <v>1433</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>1434</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="4" customFormat="1">
@@ -7208,22 +7208,22 @@
         <v>33</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>1436</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>1437</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>1438</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>1439</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>1440</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="4" customFormat="1">
@@ -7231,22 +7231,22 @@
         <v>34</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>1442</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>1443</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>1444</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>1445</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>1446</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="4" customFormat="1">
@@ -7254,22 +7254,22 @@
         <v>35</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>1449</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>1450</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>1451</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>1452</v>
-      </c>
       <c r="G67" s="6" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="4" customFormat="1">
@@ -7277,22 +7277,22 @@
         <v>36</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>1453</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>1454</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>1455</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="F68" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="G68" s="6" t="s">
         <v>1457</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -7306,25 +7306,25 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="9" t="s">
-        <v>1740</v>
+        <v>1733</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1741</v>
+        <v>1734</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1742</v>
+        <v>1735</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>1743</v>
+        <v>1736</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>1746</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="45">
@@ -7332,22 +7332,22 @@
         <v>175</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30">
@@ -7355,45 +7355,45 @@
         <v>176</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="90">
       <c r="A73" s="9" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -7410,22 +7410,22 @@
         <v>177</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -7442,22 +7442,22 @@
         <v>178</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -7474,22 +7474,22 @@
         <v>179</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -7506,22 +7506,22 @@
         <v>180</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -7538,22 +7538,22 @@
         <v>181</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -7570,22 +7570,22 @@
         <v>182</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -7593,45 +7593,45 @@
         <v>183</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="45">
       <c r="A87" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="60">
@@ -7639,68 +7639,68 @@
         <v>184</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="60">
       <c r="A89" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="75">
       <c r="A90" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -7717,22 +7717,22 @@
         <v>185</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -7749,45 +7749,45 @@
         <v>186</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="45">
       <c r="A95" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>1584</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C95" s="9" t="s">
+      <c r="D95" s="9" t="s">
         <v>1585</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="E95" s="9" t="s">
         <v>1586</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="F95" s="9" t="s">
         <v>1587</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="G95" s="9" t="s">
         <v>1588</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -7795,137 +7795,137 @@
         <v>187</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>1620</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>1621</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>1622</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="F96" s="6" t="s">
         <v>1623</v>
       </c>
-      <c r="F96" s="6" t="s">
-        <v>1624</v>
-      </c>
       <c r="G96" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="45">
       <c r="A97" s="9" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C97" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>1590</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="E97" s="9" t="s">
         <v>1591</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="F97" s="9" t="s">
         <v>1592</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="G97" s="9" t="s">
         <v>1593</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="6" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="45">
       <c r="A99" s="9" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="6" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="45">
       <c r="A101" s="9" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="45">
@@ -7933,22 +7933,22 @@
         <v>188</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7965,22 +7965,22 @@
         <v>189</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7997,22 +7997,22 @@
         <v>190</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="30">
@@ -8020,22 +8020,22 @@
         <v>191</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -8052,22 +8052,22 @@
         <v>192</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -8075,22 +8075,22 @@
         <v>193</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="75">
@@ -8098,22 +8098,22 @@
         <v>194</v>
       </c>
       <c r="B111" s="9" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G111" s="9" t="s">
         <v>1632</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>1636</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>1637</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -8130,22 +8130,22 @@
         <v>195</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="90">
@@ -8153,22 +8153,22 @@
         <v>196</v>
       </c>
       <c r="B114" s="9" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F114" s="9" t="s">
         <v>1638</v>
       </c>
-      <c r="C114" s="9" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>1641</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>1642</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>1639</v>
-      </c>
       <c r="G114" s="9" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -8185,22 +8185,22 @@
         <v>197</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="150">
@@ -8208,22 +8208,22 @@
         <v>198</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>1665</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="E117" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="F117" s="9" t="s">
         <v>1666</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="G117" s="9" t="s">
         <v>1667</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>945</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>1668</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -8240,22 +8240,22 @@
         <v>199</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="150">
@@ -8263,22 +8263,22 @@
         <v>200</v>
       </c>
       <c r="B120" s="9" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C120" s="9" t="s">
         <v>1670</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="D120" s="9" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>1672</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="F120" s="9" t="s">
         <v>1673</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="G120" s="9" t="s">
         <v>1674</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>1675</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -8295,22 +8295,22 @@
         <v>201</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="75">
@@ -8318,22 +8318,22 @@
         <v>202</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D123" s="9" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F123" s="9" t="s">
         <v>1677</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="G123" s="9" t="s">
         <v>1678</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -8350,22 +8350,22 @@
         <v>203</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="60">
@@ -8373,22 +8373,22 @@
         <v>204</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -8405,22 +8405,22 @@
         <v>205</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="120">
@@ -8428,22 +8428,22 @@
         <v>206</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -8460,22 +8460,22 @@
         <v>207</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -8492,22 +8492,22 @@
         <v>208</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C133" s="9" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>1643</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="E133" s="9" t="s">
         <v>1644</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="F133" s="9" t="s">
         <v>1645</v>
       </c>
-      <c r="F133" s="9" t="s">
-        <v>1646</v>
-      </c>
       <c r="G133" s="9" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="120">
@@ -8515,22 +8515,22 @@
         <v>209</v>
       </c>
       <c r="B134" s="9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C134" s="9" t="s">
         <v>1647</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="D134" s="9" t="s">
         <v>1648</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="E134" s="9" t="s">
         <v>1649</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="F134" s="9" t="s">
         <v>1650</v>
       </c>
-      <c r="F134" s="9" t="s">
+      <c r="G134" s="9" t="s">
         <v>1651</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8547,22 +8547,22 @@
         <v>210</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -8579,22 +8579,22 @@
         <v>211</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -8611,22 +8611,22 @@
         <v>212</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -8640,25 +8640,25 @@
     </row>
     <row r="142" spans="1:7" ht="210">
       <c r="A142" s="9" t="s">
-        <v>213</v>
+        <v>1797</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>1683</v>
+        <v>1798</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>1684</v>
+        <v>1799</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>1685</v>
+        <v>1800</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>1686</v>
+        <v>1801</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>1687</v>
+        <v>1802</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>1653</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -8672,25 +8672,25 @@
     </row>
     <row r="144" spans="1:7" ht="45">
       <c r="A144" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -8704,71 +8704,71 @@
     </row>
     <row r="146" spans="1:7" ht="60">
       <c r="A146" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="60">
       <c r="A147" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="75">
       <c r="A148" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -8782,48 +8782,48 @@
     </row>
     <row r="150" spans="1:7" ht="45">
       <c r="A150" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="60">
       <c r="A151" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -8837,48 +8837,48 @@
     </row>
     <row r="153" spans="1:7" ht="45">
       <c r="A153" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="195">
       <c r="A154" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -8892,48 +8892,48 @@
     </row>
     <row r="156" spans="1:7" ht="60">
       <c r="A156" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="315">
       <c r="A157" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B157" s="9" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D157" s="9" t="s">
         <v>1654</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="E157" s="9" t="s">
         <v>1655</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="F157" s="9" t="s">
         <v>1656</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="G157" s="9" t="s">
         <v>1657</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>1658</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -8947,48 +8947,48 @@
     </row>
     <row r="159" spans="1:7" ht="45">
       <c r="A159" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="135">
       <c r="A160" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -9002,48 +9002,48 @@
     </row>
     <row r="162" spans="1:7" ht="90">
       <c r="A162" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="90">
       <c r="A163" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -9057,48 +9057,48 @@
     </row>
     <row r="165" spans="1:7" ht="60">
       <c r="A165" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C165" s="9" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E165" s="9" t="s">
         <v>1660</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="F165" s="9" t="s">
         <v>1661</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="G165" s="9" t="s">
         <v>1662</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>1663</v>
-      </c>
-      <c r="G165" s="9" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="60">
       <c r="A166" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -9112,48 +9112,48 @@
     </row>
     <row r="168" spans="1:7" ht="60">
       <c r="A168" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="60">
       <c r="A169" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -9167,48 +9167,48 @@
     </row>
     <row r="171" spans="1:7" ht="60">
       <c r="A171" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="105">
       <c r="A172" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -9222,48 +9222,48 @@
     </row>
     <row r="174" spans="1:7" ht="45">
       <c r="A174" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="45">
       <c r="A175" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
   </sheetData>
@@ -9291,7 +9291,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -9320,25 +9320,25 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9346,22 +9346,22 @@
         <v>62</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9369,22 +9369,22 @@
         <v>63</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9401,22 +9401,22 @@
         <v>64</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9433,22 +9433,22 @@
         <v>65</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9465,22 +9465,22 @@
         <v>66</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60">
@@ -9488,22 +9488,22 @@
         <v>67</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9520,22 +9520,22 @@
         <v>68</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75">
@@ -9543,22 +9543,22 @@
         <v>69</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9575,22 +9575,22 @@
         <v>70</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45">
@@ -9598,22 +9598,22 @@
         <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -9960,48 +9960,48 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10009,22 +10009,22 @@
         <v>51</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10041,22 +10041,22 @@
         <v>45</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10073,22 +10073,22 @@
         <v>52</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10105,22 +10105,22 @@
         <v>46</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -10134,25 +10134,25 @@
     </row>
     <row r="11" spans="1:7" ht="45">
       <c r="A11" s="6" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>1573</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>1574</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>1575</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>1576</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>1577</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10160,22 +10160,22 @@
         <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
@@ -10183,22 +10183,22 @@
         <v>59</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45">
@@ -10206,22 +10206,22 @@
         <v>60</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45">
@@ -10229,22 +10229,22 @@
         <v>61</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10261,22 +10261,22 @@
         <v>53</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10293,22 +10293,22 @@
         <v>47</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10325,22 +10325,22 @@
         <v>54</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10357,22 +10357,22 @@
         <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10389,22 +10389,22 @@
         <v>55</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10421,22 +10421,22 @@
         <v>49</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -10450,25 +10450,25 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -10482,25 +10482,25 @@
     </row>
     <row r="31" spans="1:7" ht="60">
       <c r="A31" s="14" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -10517,91 +10517,91 @@
         <v>56</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>1470</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>1471</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>1472</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>1473</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>1474</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45">
       <c r="A34" s="6" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>1552</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>1553</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>1554</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>1555</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>1556</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>1557</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60">
       <c r="A35" s="6" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30">
       <c r="A36" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -10618,22 +10618,22 @@
         <v>57</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="120">
@@ -10641,22 +10641,22 @@
         <v>50</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -10923,7 +10923,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -10952,25 +10952,25 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10978,22 +10978,22 @@
         <v>72</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -11012,22 +11012,22 @@
         <v>73</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -11046,22 +11046,22 @@
         <v>74</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -11080,22 +11080,22 @@
         <v>75</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -11114,22 +11114,22 @@
         <v>22</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>1542</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>1543</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>1544</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>1545</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -11148,22 +11148,22 @@
         <v>23</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>1549</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>1550</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>1551</v>
-      </c>
       <c r="G13" s="9" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -11181,22 +11181,22 @@
         <v>141</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -11205,22 +11205,22 @@
         <v>142</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -11239,22 +11239,22 @@
         <v>143</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -11263,22 +11263,22 @@
         <v>144</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -11297,22 +11297,22 @@
         <v>145</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -11321,22 +11321,22 @@
         <v>27</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -11345,22 +11345,22 @@
         <v>28</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -11378,22 +11378,22 @@
         <v>37</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -11412,22 +11412,22 @@
         <v>38</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -11443,48 +11443,48 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>1528</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>1529</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>1530</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>1531</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>1532</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30">
       <c r="A30" s="9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>1354</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>1355</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>1356</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="E30" s="12" t="s">
         <v>1357</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="F30" s="12" t="s">
         <v>1358</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="G30" s="12" t="s">
         <v>1359</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30">
@@ -11492,22 +11492,22 @@
         <v>39</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>1361</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>1362</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="E31" s="12" t="s">
         <v>1363</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="F31" s="12" t="s">
         <v>1364</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="G31" s="12" t="s">
         <v>1365</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30">
@@ -11515,22 +11515,22 @@
         <v>40</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>1367</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>1368</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>1369</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>1370</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="G32" s="12" t="s">
         <v>1371</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30">
@@ -11538,22 +11538,22 @@
         <v>41</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>1373</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>1374</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>1375</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="G33" s="12" t="s">
         <v>1377</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30">
@@ -11561,22 +11561,22 @@
         <v>42</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>1379</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>1380</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>1381</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>1382</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="G34" s="12" t="s">
         <v>1383</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -11593,22 +11593,22 @@
         <v>146</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -11627,22 +11627,22 @@
         <v>44</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -11777,7 +11777,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -11806,25 +11806,25 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
@@ -11832,22 +11832,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11864,22 +11864,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -11896,22 +11896,22 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11928,22 +11928,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -11960,22 +11960,22 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11992,22 +11992,22 @@
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -12024,22 +12024,22 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -12056,22 +12056,22 @@
         <v>7</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12088,22 +12088,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -12120,22 +12120,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -12152,22 +12152,22 @@
         <v>10</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -12184,22 +12184,22 @@
         <v>11</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -12216,22 +12216,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -12248,22 +12248,22 @@
         <v>13</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>1522</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>1523</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>1524</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="F29" s="9" t="s">
         <v>1525</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>1526</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -12280,22 +12280,22 @@
         <v>14</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -12312,22 +12312,22 @@
         <v>15</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -12344,22 +12344,22 @@
         <v>16</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -12376,22 +12376,22 @@
         <v>17</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -12408,22 +12408,22 @@
         <v>18</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -12440,22 +12440,22 @@
         <v>19</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -12472,22 +12472,22 @@
         <v>20</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>1339</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>1340</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="E43" s="9" t="s">
         <v>1341</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>1342</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>1343</v>
-      </c>
       <c r="G43" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -12504,22 +12504,22 @@
         <v>21</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>1334</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="E45" s="9" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>1337</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>1338</v>
-      </c>
       <c r="G45" s="9" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -12536,22 +12536,22 @@
         <v>22</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -12568,22 +12568,22 @@
         <v>23</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D49" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>1549</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>1550</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>1551</v>
-      </c>
       <c r="G49" s="9" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -12600,22 +12600,22 @@
         <v>141</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -12632,22 +12632,22 @@
         <v>142</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>1785</v>
+        <v>1778</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>1787</v>
+        <v>1780</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>1789</v>
+        <v>1782</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>1790</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -12664,22 +12664,22 @@
         <v>24</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -12696,22 +12696,22 @@
         <v>25</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -12728,22 +12728,22 @@
         <v>26</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -12760,22 +12760,22 @@
         <v>27</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -12792,22 +12792,22 @@
         <v>28</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -12824,22 +12824,22 @@
         <v>37</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -12856,22 +12856,22 @@
         <v>38</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -12885,48 +12885,48 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B69" s="12" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>1528</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="D69" s="12" t="s">
         <v>1529</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="E69" s="12" t="s">
         <v>1530</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="F69" s="12" t="s">
         <v>1531</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="G69" s="12" t="s">
         <v>1532</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30">
       <c r="A70" s="9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B70" s="12" t="s">
         <v>1354</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>1355</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="D70" s="12" t="s">
         <v>1356</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="E70" s="12" t="s">
         <v>1357</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="F70" s="12" t="s">
         <v>1358</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="G70" s="12" t="s">
         <v>1359</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30">
@@ -12934,22 +12934,22 @@
         <v>39</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>1361</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="D71" s="12" t="s">
         <v>1362</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="E71" s="12" t="s">
         <v>1363</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="F71" s="12" t="s">
         <v>1364</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="G71" s="12" t="s">
         <v>1365</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30">
@@ -12957,22 +12957,22 @@
         <v>40</v>
       </c>
       <c r="B72" s="12" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>1367</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="D72" s="12" t="s">
         <v>1368</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="E72" s="12" t="s">
         <v>1369</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="F72" s="12" t="s">
         <v>1370</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="G72" s="12" t="s">
         <v>1371</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30">
@@ -12980,22 +12980,22 @@
         <v>41</v>
       </c>
       <c r="B73" s="12" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>1373</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="D73" s="12" t="s">
         <v>1374</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="E73" s="12" t="s">
         <v>1375</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="F73" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="G73" s="12" t="s">
         <v>1377</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30">
@@ -13003,22 +13003,22 @@
         <v>42</v>
       </c>
       <c r="B74" s="12" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>1379</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="D74" s="12" t="s">
         <v>1380</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="E74" s="12" t="s">
         <v>1381</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="F74" s="12" t="s">
         <v>1382</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="G74" s="12" t="s">
         <v>1383</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -13035,22 +13035,22 @@
         <v>43</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -13067,22 +13067,22 @@
         <v>44</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
   </sheetData>
@@ -13110,7 +13110,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -13139,25 +13139,25 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -13165,22 +13165,22 @@
         <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13197,22 +13197,22 @@
         <v>73</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -13229,22 +13229,22 @@
         <v>74</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13261,22 +13261,22 @@
         <v>75</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13293,22 +13293,22 @@
         <v>76</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13325,22 +13325,22 @@
         <v>77</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13357,22 +13357,22 @@
         <v>78</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -13389,22 +13389,22 @@
         <v>79</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>1536</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>1537</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>1538</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>1539</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>1540</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -13418,25 +13418,25 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="22" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>1715</v>
+        <v>1708</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13453,22 +13453,22 @@
         <v>80</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -13482,94 +13482,94 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>1697</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>1703</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>1704</v>
-      </c>
       <c r="G23" s="6" t="s">
-        <v>1705</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1706</v>
+        <v>1699</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>1700</v>
+        <v>1693</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>1712</v>
+        <v>1705</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>1700</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -13586,22 +13586,22 @@
         <v>81</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -13617,25 +13617,25 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="13" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -13649,25 +13649,25 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -13681,25 +13681,25 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -13713,25 +13713,25 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -13748,22 +13748,22 @@
         <v>16</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -13780,22 +13780,22 @@
         <v>83</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -13809,25 +13809,25 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -13841,25 +13841,25 @@
     </row>
     <row r="44" spans="1:7" ht="30">
       <c r="A44" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -14126,7 +14126,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -14155,25 +14155,25 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60">
@@ -14181,22 +14181,22 @@
         <v>84</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -14213,22 +14213,22 @@
         <v>85</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -14245,22 +14245,22 @@
         <v>86</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14289,7 +14289,7 @@
         <v>87</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>87</v>
@@ -14309,22 +14309,22 @@
         <v>88</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -14341,22 +14341,22 @@
         <v>89</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -14373,22 +14373,22 @@
         <v>90</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -14414,13 +14414,13 @@
         <v>91</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>91</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -14437,22 +14437,22 @@
         <v>92</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -14478,7 +14478,7 @@
         <v>93</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>93</v>
@@ -14501,22 +14501,22 @@
         <v>94</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -14565,22 +14565,22 @@
         <v>96</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -14629,22 +14629,22 @@
         <v>98</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -14693,22 +14693,22 @@
         <v>100</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -14757,22 +14757,22 @@
         <v>102</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -14821,22 +14821,22 @@
         <v>104</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -14885,22 +14885,22 @@
         <v>106</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -14949,22 +14949,22 @@
         <v>108</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -14984,13 +14984,13 @@
         <v>109</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>109</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>109</v>
@@ -15013,22 +15013,22 @@
         <v>110</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -15045,22 +15045,22 @@
         <v>111</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -15092,7 +15092,7 @@
         <v>112</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -15109,22 +15109,22 @@
         <v>113</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -15153,7 +15153,7 @@
         <v>114</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>114</v>
@@ -15173,22 +15173,22 @@
         <v>115</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -15217,10 +15217,10 @@
         <v>116</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -15237,22 +15237,22 @@
         <v>117</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -15275,13 +15275,13 @@
         <v>118</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>118</v>
@@ -15301,22 +15301,22 @@
         <v>119</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -15342,7 +15342,7 @@
         <v>120</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>120</v>
@@ -15365,22 +15365,22 @@
         <v>121</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -15429,22 +15429,22 @@
         <v>123</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -15473,7 +15473,7 @@
         <v>124</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>124</v>
@@ -15493,22 +15493,22 @@
         <v>125</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -15557,22 +15557,22 @@
         <v>127</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -15621,22 +15621,22 @@
         <v>129</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -15685,22 +15685,22 @@
         <v>131</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -15729,7 +15729,7 @@
         <v>132</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>132</v>
@@ -15749,22 +15749,22 @@
         <v>133</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -15790,13 +15790,13 @@
         <v>134</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -15813,22 +15813,22 @@
         <v>135</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -15848,16 +15848,16 @@
         <v>136</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>136</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>136</v>
@@ -15877,22 +15877,22 @@
         <v>137</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -15909,22 +15909,22 @@
         <v>138</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -15947,16 +15947,16 @@
         <v>139</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -15973,22 +15973,22 @@
         <v>140</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -16051,7 +16051,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -16080,25 +16080,25 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -16106,22 +16106,22 @@
         <v>149</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -16135,25 +16135,25 @@
     </row>
     <row r="5" spans="1:7" ht="150">
       <c r="A5" s="9" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>1758</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>1765</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1767</v>
+        <v>1760</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1757</v>
+        <v>1750</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1768</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -16167,25 +16167,25 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>1791</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>1793</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>1795</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1798</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1800</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -16199,25 +16199,25 @@
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="6" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>1792</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="F9" s="6" t="s">
         <v>1794</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>1796</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1797</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1799</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1801</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -16234,22 +16234,22 @@
         <v>150</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -16263,25 +16263,25 @@
     </row>
     <row r="13" spans="1:7" ht="105">
       <c r="A13" s="6" t="s">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1750</v>
+        <v>1743</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1751</v>
+        <v>1744</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1752</v>
+        <v>1745</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1753</v>
+        <v>1746</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>1749</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -16636,7 +16636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -16651,7 +16651,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B1" s="16" t="str">
         <f>A1</f>
@@ -16680,25 +16680,25 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -16706,22 +16706,22 @@
         <v>147</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -16738,22 +16738,22 @@
         <v>148</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -16770,22 +16770,22 @@
         <v>149</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -16799,25 +16799,25 @@
     </row>
     <row r="9" spans="1:7" ht="180">
       <c r="A9" s="9" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -16831,25 +16831,25 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>1791</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>1793</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>1795</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>1798</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>1800</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -16863,25 +16863,25 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="6" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>1792</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="F13" s="6" t="s">
         <v>1794</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>1796</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>1797</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1799</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>1801</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -16898,22 +16898,22 @@
         <v>150</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -16930,22 +16930,22 @@
         <v>151</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="18" spans="1:7">
